--- a/nba2k_editor/Offsets/ImportNBARecords.xlsx
+++ b/nba2k_editor/Offsets/ImportNBARecords.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Career - Basic Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Career - Date Info" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Career - Record Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Season - Basic Info" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Season - Date Info" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Season - Record Stats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Single Game (Playoffs) - Basic " sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Single Game (Playoffs) - Date I" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Single Game (Playoffs) - Record" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Single Game (Regular) - Basic I" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Single Game (Regular) - Date In" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Single Game (Regular) - Record " sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Career - Basic Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Career - Date Info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Career - Record Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Season - Basic Info" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Season - Date Info" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Season - Record Stats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Single Game (Playoffs) - Basic " sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Single Game (Playoffs) - Date I" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Single Game (Playoffs) - Record" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Single Game (Regular) - Basic I" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Single Game (Regular) - Date In" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Single Game (Regular) - Record " sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28,16 +28,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,21 +53,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -445,22 +433,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Signature ID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Team Logo</t>
         </is>
@@ -486,22 +474,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Signature ID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Team Logo</t>
         </is>
@@ -527,17 +515,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
@@ -563,7 +551,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -589,17 +577,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
@@ -625,7 +613,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -651,22 +639,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Signature ID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Team Logo</t>
         </is>
@@ -692,17 +680,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
@@ -728,7 +716,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -754,22 +742,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Signature ID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Team Logo</t>
         </is>
@@ -795,17 +783,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
@@ -831,7 +819,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
